--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -232,6 +232,62 @@
   </si>
   <si>
     <t>NN、UQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record ( 錄音資訊 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_filename</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vocabulary_Library ( 單字庫 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文定義。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳時間。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI、UQ、UN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_vocabulary</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,6 +568,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -799,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -858,212 +917,183 @@
       <c r="D4" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
+      <c r="A9" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="17">
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="17">
-      <c r="A10" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
+      <c r="D10" s="19" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17">
       <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="17">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="17">
+      <c r="A18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17">
+      <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
-      <c r="A12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="17">
+      <c r="A20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="17">
-      <c r="A13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="17">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="17">
-      <c r="A20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D20" s="4"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
+      <c r="A21" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17">
-      <c r="A23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="A22" s="18"/>
     </row>
     <row r="25" spans="1:6" ht="17">
       <c r="A25" s="5"/>
@@ -1072,10 +1102,174 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="17">
+      <c r="A28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="17">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17">
+      <c r="A32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="17">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="17">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17">
+      <c r="A36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="17">
+      <c r="A37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="17">
+      <c r="A38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17">
+      <c r="A39" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17">
+      <c r="A40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="17">
       <c r="A42" s="5"/>
@@ -1217,7 +1411,7 @@
       <c r="D76" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -288,6 +288,281 @@
   </si>
   <si>
     <t>au_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5(uniqid(rand()));    //生成的唯一ID。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>background_color</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>border_color</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_star</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme ( 主題 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT( 2 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title ( 標題 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice ( 自主練習 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind_of_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind_of_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UN、UQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UN、UQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UN、UQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 0  // 標題。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 0 - 0  // 主題。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 0、1、2、3   //  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>星數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，表達自主練習的進度。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice_Status ( 自主練習狀況 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出現在哪個關卡 ( 0 - 0 - 0 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind_of_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 - 0 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  // 自主練習。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount_of_practice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +699,53 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +790,24 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -510,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,9 +895,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,6 +905,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,6 +953,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3399FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -856,21 +1232,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.296875" customWidth="1"/>
+    <col min="1" max="1" width="29.8984375" customWidth="1"/>
     <col min="2" max="2" width="36.8984375" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
     <col min="4" max="4" width="77.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -880,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -892,7 +1268,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -904,7 +1280,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -916,7 +1292,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>57</v>
@@ -926,7 +1302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -938,8 +1314,8 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="17">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -950,7 +1326,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -960,11 +1336,11 @@
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -974,11 +1350,11 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -988,427 +1364,632 @@
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="1" t="s">
+      <c r="D13" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="17">
-      <c r="A18" s="18" t="s">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17">
-      <c r="A19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="18" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="18"/>
-    </row>
-    <row r="25" spans="1:6" ht="17">
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="17">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="17">
-      <c r="A28" s="14" t="s">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="17">
-      <c r="A29" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="17">
-      <c r="A30" s="13" t="s">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17">
-      <c r="A32" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="17">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="17">
-      <c r="A37" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="17">
-      <c r="A38" s="5" t="s">
-        <v>56</v>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17">
-      <c r="A40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="17">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="17">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="17">
-      <c r="A46" s="16"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" ht="17">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="17">
-      <c r="A48" s="8"/>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="17">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="17">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="15"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="15"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="15"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="1:4">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A71" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="15"/>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4"/>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="1:4" ht="17">
-      <c r="A75" s="8"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" ht="17">
-      <c r="A76" s="5"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
   <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -147,15 +147,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>單字詞性。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>card_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>part_of_speech</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -215,14 +207,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>vocabulary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>definition</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>save_date</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -267,31 +251,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>level_code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>AI、UQ、UN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5(uniqid(rand()));    //生成的唯一ID。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI、UQ、UN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>save_date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_vocabulary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_vocabulary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>md5(uniqid(rand()));    //生成的唯一ID。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -299,10 +279,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>NN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>background_color</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -351,22 +327,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>pt_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>kind_of_theme</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>kind_of_theme</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NN、UQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -375,18 +339,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>NN、UN、UQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NN、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>NN、UN、UQ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>pt_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -399,7 +355,28 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ps_title</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 0 - 0  // 主題。</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -488,23 +465,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Practice_Status ( 自主練習狀況 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps_practice</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>出現在哪個關卡 ( 0 - 0 - 0 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>au_account</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind_of_title</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -558,11 +519,99 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>NN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture ( 圖片資訊 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_filename</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>theme_code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>amount_of_practice</t>
+    <t>title_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind_of_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind_of_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT( 10 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Practice_Status ( 自主練習狀況 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>單字詞性。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_definition</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_part_of_speech</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR( 100 )</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,15 +751,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="5"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -745,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,12 +832,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -848,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -892,9 +926,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,43 +935,34 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,11 +1256,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.8984375" customWidth="1"/>
     <col min="2" max="2" width="36.8984375" customWidth="1"/>
@@ -1246,7 +1268,7 @@
     <col min="4" max="4" width="77.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1256,7 +1278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1290,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -1280,43 +1302,43 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>49</v>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1326,9 +1348,9 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="8" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1336,13 +1358,13 @@
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="D10" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>31</v>
@@ -1350,594 +1372,590 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="D11" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17">
+      <c r="A14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="17">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="17">
+      <c r="A24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17">
+      <c r="A25" s="16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="17">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="17">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="17">
+      <c r="A33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17">
+      <c r="A34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17">
+      <c r="A35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="17">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="17">
+      <c r="A40" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="17">
+      <c r="A41" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17">
+      <c r="A42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="17">
+      <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="17">
+      <c r="A48" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="17">
+      <c r="A49" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17">
+      <c r="A50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17">
+      <c r="A51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17">
+      <c r="A55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" ht="17">
+      <c r="A56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="17">
+      <c r="A57" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" ht="17">
+      <c r="A58" s="13"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="17">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2" t="s">
+      <c r="C60" s="1"/>
+      <c r="D60" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="4" t="s">
+    <row r="61" spans="1:4" ht="17">
+      <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="17">
+      <c r="A62" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
-        <v>86</v>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" ht="17">
+      <c r="A63" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" ht="17">
+      <c r="A64" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="4" t="s">
+    <row r="68" spans="1:4" ht="17">
+      <c r="A68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" ht="17">
+      <c r="A69" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" ht="17">
+      <c r="A70" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A69" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="C70" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" ht="17">
+      <c r="A71" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>73</v>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" ht="17">
+      <c r="A72" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>25</v>
@@ -1945,51 +1963,97 @@
       <c r="C72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="75" spans="1:4" ht="17">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17">
+      <c r="A76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+    <row r="77" spans="1:4" ht="17">
+      <c r="A77" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="15"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="15"/>
+    <row r="78" spans="1:4" ht="17">
+      <c r="A78" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17">
+      <c r="A79" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17">
+      <c r="A80" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17">
+      <c r="A81" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
   <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>VARCHAR( 100 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>login_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>以 0、1、2 表示身分。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -207,14 +199,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>save_date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NN、UQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -247,10 +231,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>upload_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -260,10 +240,6 @@
   </si>
   <si>
     <t>card_vocabulary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>au_vocabulary</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -539,10 +515,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>img_vocabulary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NN、UQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -612,6 +584,210 @@
   </si>
   <si>
     <t>VARCHAR( 100 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_select_target</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_click_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 ~ 2   //  表示錄音選擇。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_Select_Record ( 錄音挑選 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps_save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_card_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pi_login_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl_upload_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>au_save_date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_click_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ~ 1   //  表示每個階段的提示按鈕點擊。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ~ 3   //  表示每個階段的語音按鈕點擊。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sr_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_Delete_Record ( 刪除錄音 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_Click_Tip ( 點擊提示次數 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_Click_Sound ( 語音點擊紀錄 )</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +795,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1254,13 +1430,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.8984375" customWidth="1"/>
     <col min="2" max="2" width="36.8984375" customWidth="1"/>
@@ -1268,31 +1444,31 @@
     <col min="4" max="4" width="77.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1302,55 +1478,55 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="17">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1359,94 +1535,94 @@
         <v>8</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17">
-      <c r="A15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17">
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17">
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -1457,9 +1633,9 @@
       <c r="D19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17">
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1470,12 +1646,12 @@
       <c r="D20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17">
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -1484,46 +1660,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17">
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>11</v>
@@ -1532,60 +1708,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17">
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="17">
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="17">
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="17">
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -1595,91 +1771,91 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
-      <c r="A34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17">
-      <c r="A35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
@@ -1691,9 +1867,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
@@ -1702,68 +1878,68 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>11</v>
@@ -1772,42 +1948,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>7</v>
@@ -1817,109 +1993,109 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="17">
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="17">
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="17">
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="17">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
@@ -1929,130 +2105,575 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="17">
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" ht="17">
-      <c r="A71" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A72" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" ht="17">
-      <c r="A72" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="17">
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="17">
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="17">
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17">
-      <c r="A80" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17">
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D81" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A89" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A99" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A100" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A110" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A111" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A112" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A121" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A122" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A123" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A124" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
   <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -790,12 +790,24 @@
     <t>Exp_Click_Sound ( 語音點擊紀錄 )</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>cs_click_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、ZF、UN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_click_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,13 +1442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.8984375" customWidth="1"/>
     <col min="2" max="2" width="36.8984375" customWidth="1"/>
@@ -1444,7 +1456,7 @@
     <col min="4" max="4" width="77.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1454,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1478,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1478,7 +1490,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1502,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>49</v>
@@ -1500,7 +1512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1512,7 +1524,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="16" t="s">
         <v>104</v>
       </c>
@@ -1524,7 +1536,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="8" t="s">
         <v>105</v>
       </c>
@@ -1538,7 +1550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="5" t="s">
         <v>106</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17">
       <c r="A13" s="21" t="s">
         <v>107</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="17">
       <c r="A14" s="13" t="s">
         <v>102</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="17">
       <c r="A15" s="13" t="s">
         <v>103</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="17">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="17">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1633,7 +1645,7 @@
       <c r="D19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="17">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1646,7 +1658,7 @@
       <c r="D20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="17">
       <c r="A21" s="26" t="s">
         <v>43</v>
       </c>
@@ -1660,7 +1672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="17">
       <c r="A22" s="24" t="s">
         <v>44</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="17">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -1686,7 +1698,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="17">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -1697,7 +1709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="17">
       <c r="A25" s="16" t="s">
         <v>55</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="17">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
@@ -1719,13 +1731,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="17">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="17">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -1735,7 +1747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="17">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1747,7 +1759,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="17">
       <c r="A31" s="14" t="s">
         <v>22</v>
       </c>
@@ -1759,7 +1771,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="17">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1771,7 +1783,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="17">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -1785,7 +1797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="17">
       <c r="A34" s="5" t="s">
         <v>136</v>
       </c>
@@ -1799,7 +1811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="17">
       <c r="A35" s="5" t="s">
         <v>137</v>
       </c>
@@ -1813,13 +1825,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -1829,7 +1841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1841,7 +1853,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="17">
       <c r="A40" s="14" t="s">
         <v>83</v>
       </c>
@@ -1853,7 +1865,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="17">
       <c r="A41" s="25" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="17">
       <c r="A42" s="16" t="s">
         <v>141</v>
       </c>
@@ -1878,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="5" t="s">
         <v>142</v>
       </c>
@@ -1889,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>87</v>
@@ -1899,7 +1911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="3" t="s">
         <v>88</v>
       </c>
@@ -1911,7 +1923,7 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="17">
       <c r="A48" s="14" t="s">
         <v>89</v>
       </c>
@@ -1923,7 +1935,7 @@
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="17">
       <c r="A49" s="27" t="s">
         <v>90</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="17">
       <c r="A50" s="16" t="s">
         <v>139</v>
       </c>
@@ -1948,7 +1960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="5" t="s">
         <v>140</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>62</v>
@@ -1969,7 +1981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -1981,7 +1993,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="17">
       <c r="A56" s="13" t="s">
         <v>63</v>
       </c>
@@ -1993,7 +2005,7 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="17">
       <c r="A57" s="23" t="s">
         <v>92</v>
       </c>
@@ -2005,16 +2017,16 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="17">
       <c r="A58" s="13"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>66</v>
@@ -2024,7 +2036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
@@ -2036,7 +2048,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="17">
       <c r="A62" s="13" t="s">
         <v>68</v>
       </c>
@@ -2048,7 +2060,7 @@
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="17">
       <c r="A63" s="13" t="s">
         <v>93</v>
       </c>
@@ -2060,7 +2072,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="17">
       <c r="A64" s="21" t="s">
         <v>71</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="17">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>69</v>
@@ -2081,7 +2093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="17">
       <c r="A68" s="3" t="s">
         <v>75</v>
       </c>
@@ -2093,7 +2105,7 @@
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="17">
       <c r="A69" s="13" t="s">
         <v>70</v>
       </c>
@@ -2105,7 +2117,7 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="17">
       <c r="A70" s="13" t="s">
         <v>94</v>
       </c>
@@ -2117,7 +2129,7 @@
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="17">
       <c r="A71" s="13" t="s">
         <v>97</v>
       </c>
@@ -2129,7 +2141,7 @@
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="17">
       <c r="A72" s="21" t="s">
         <v>98</v>
       </c>
@@ -2141,7 +2153,7 @@
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="17">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>100</v>
@@ -2151,7 +2163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="17">
       <c r="A76" s="3" t="s">
         <v>82</v>
       </c>
@@ -2163,7 +2175,7 @@
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="17">
       <c r="A77" s="14" t="s">
         <v>76</v>
       </c>
@@ -2175,7 +2187,7 @@
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="17">
       <c r="A78" s="21" t="s">
         <v>77</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="17">
       <c r="A79" s="13" t="s">
         <v>95</v>
       </c>
@@ -2203,7 +2215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="17">
       <c r="A80" s="13" t="s">
         <v>96</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="17">
       <c r="A81" s="13" t="s">
         <v>61</v>
       </c>
@@ -2231,7 +2243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="17">
       <c r="A82" s="5" t="s">
         <v>135</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="17">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>159</v>
@@ -2252,7 +2264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="17">
       <c r="A86" s="3" t="s">
         <v>109</v>
       </c>
@@ -2264,7 +2276,7 @@
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="17">
       <c r="A87" s="14" t="s">
         <v>110</v>
       </c>
@@ -2276,7 +2288,7 @@
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="17">
       <c r="A88" s="16" t="s">
         <v>114</v>
       </c>
@@ -2287,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="17">
       <c r="A89" s="21" t="s">
         <v>111</v>
       </c>
@@ -2301,7 +2313,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="17">
       <c r="A90" s="13" t="s">
         <v>112</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="17">
       <c r="A91" s="13" t="s">
         <v>113</v>
       </c>
@@ -2329,32 +2341,43 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="17">
       <c r="A92" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17">
+      <c r="A93" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D93" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:4" ht="17">
+      <c r="A94" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="17">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
         <v>122</v>
@@ -2364,7 +2387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="17">
       <c r="A97" s="3" t="s">
         <v>146</v>
       </c>
@@ -2376,7 +2399,7 @@
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="17">
       <c r="A98" s="14" t="s">
         <v>115</v>
       </c>
@@ -2388,7 +2411,7 @@
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="17">
       <c r="A99" s="16" t="s">
         <v>116</v>
       </c>
@@ -2399,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="17">
       <c r="A100" s="21" t="s">
         <v>147</v>
       </c>
@@ -2413,7 +2436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="17">
       <c r="A101" s="13" t="s">
         <v>148</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="17">
       <c r="A102" s="13" t="s">
         <v>149</v>
       </c>
@@ -2441,7 +2464,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="17">
       <c r="A103" s="13" t="s">
         <v>117</v>
       </c>
@@ -2455,7 +2478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="17">
       <c r="A104" s="5" t="s">
         <v>120</v>
       </c>
@@ -2466,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="17">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>150</v>
@@ -2476,7 +2499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="17">
       <c r="A108" s="3" t="s">
         <v>123</v>
       </c>
@@ -2488,7 +2511,7 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="17">
       <c r="A109" s="14" t="s">
         <v>151</v>
       </c>
@@ -2500,7 +2523,7 @@
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="17">
       <c r="A110" s="16" t="s">
         <v>124</v>
       </c>
@@ -2511,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="17">
       <c r="A111" s="21" t="s">
         <v>125</v>
       </c>
@@ -2525,7 +2548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="17">
       <c r="A112" s="13" t="s">
         <v>126</v>
       </c>
@@ -2539,7 +2562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="17">
       <c r="A113" s="13" t="s">
         <v>152</v>
       </c>
@@ -2553,7 +2576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="17">
       <c r="A114" s="5" t="s">
         <v>127</v>
       </c>
@@ -2564,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="17">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
         <v>158</v>
@@ -2574,7 +2597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="17">
       <c r="A119" s="3" t="s">
         <v>153</v>
       </c>
@@ -2586,7 +2609,7 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="17">
       <c r="A120" s="14" t="s">
         <v>128</v>
       </c>
@@ -2598,7 +2621,7 @@
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="17">
       <c r="A121" s="16" t="s">
         <v>129</v>
       </c>
@@ -2609,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="17">
       <c r="A122" s="21" t="s">
         <v>130</v>
       </c>
@@ -2623,7 +2646,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="17">
       <c r="A123" s="13" t="s">
         <v>131</v>
       </c>
@@ -2637,7 +2660,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="17">
       <c r="A124" s="13" t="s">
         <v>132</v>
       </c>
@@ -2651,7 +2674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="17">
       <c r="A125" s="13" t="s">
         <v>143</v>
       </c>
@@ -2665,7 +2688,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="17">
       <c r="A126" s="5" t="s">
         <v>133</v>
       </c>
@@ -2674,6 +2697,17 @@
       </c>
       <c r="C126" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17">
+      <c r="A127" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="176">
   <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -405,34 +405,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - 0 - 0  // 主題。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 0、1、2、3   //  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>星數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，表達自主練習的進度。</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -623,10 +595,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cs_click_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cs_save_date</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -723,18 +691,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ct_click_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 0 ~ 1   //  表示每個階段的提示按鈕點擊。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 0 ~ 3   //  表示每個階段的語音按鈕點擊。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>sr_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -795,11 +755,103 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>NN、ZF、UN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ct_click_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_click_step</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ~ 2   //  表示每個階段的語音按鈕點擊。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ct_click_step</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN、UN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr_delete_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp_Wrong_Time ( 答題錯誤紀錄 )</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_account</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_vocabulary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_theme</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_practice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_wrong_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_step</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 ~ 1   //  表示每個階段的語音按鈕點擊。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 0、1、2、3   //  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>星數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，表達自主練習的進度。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wt_save_date</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +859,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,21 +1494,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.8984375" customWidth="1"/>
+    <col min="1" max="1" width="25.69921875" customWidth="1"/>
     <col min="2" max="2" width="36.8984375" customWidth="1"/>
     <col min="3" max="3" width="20.69921875" customWidth="1"/>
     <col min="4" max="4" width="77.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1466,7 +1518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1530,7 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1542,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>17</v>
       </c>
@@ -1502,7 +1554,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>49</v>
@@ -1512,7 +1564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1524,9 +1576,9 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="17">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1536,9 +1588,9 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1550,9 +1602,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>30</v>
@@ -1561,15 +1613,15 @@
         <v>29</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1578,9 +1630,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>65</v>
@@ -1592,9 +1644,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>65</v>
@@ -1606,9 +1658,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>65</v>
@@ -1617,10 +1669,10 @@
         <v>25</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1632,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17">
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1697,7 @@
       <c r="D19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17">
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1658,7 +1710,7 @@
       <c r="D20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17">
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>43</v>
       </c>
@@ -1672,7 +1724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>44</v>
       </c>
@@ -1686,7 +1738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>59</v>
       </c>
@@ -1698,7 +1750,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17">
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>60</v>
       </c>
@@ -1709,7 +1761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17">
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>55</v>
       </c>
@@ -1720,24 +1772,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17">
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17">
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="17">
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -1747,7 +1799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17">
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +1811,7 @@
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="17">
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>22</v>
       </c>
@@ -1771,7 +1823,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="17">
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -1783,7 +1835,7 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>34</v>
       </c>
@@ -1797,9 +1849,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>21</v>
@@ -1811,9 +1863,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>21</v>
@@ -1825,13 +1877,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -1841,7 +1893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1853,19 +1905,19 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>48</v>
       </c>
@@ -1879,9 +1931,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
@@ -1890,30 +1942,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17">
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17">
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17">
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>15</v>
@@ -1923,35 +1975,35 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="17">
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="17">
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>11</v>
@@ -1960,18 +2012,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17">
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17">
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>62</v>
@@ -1981,7 +2033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17">
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -1993,7 +2045,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="17">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>63</v>
       </c>
@@ -2005,9 +2057,9 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="17">
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
@@ -2017,16 +2069,16 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="17">
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="17">
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>66</v>
@@ -2036,7 +2088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17">
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
@@ -2048,7 +2100,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="17">
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>68</v>
       </c>
@@ -2060,9 +2112,9 @@
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="17">
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
@@ -2072,7 +2124,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="17">
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>71</v>
       </c>
@@ -2083,7 +2135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17">
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>69</v>
@@ -2093,19 +2145,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17">
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="17">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>70</v>
       </c>
@@ -2117,9 +2169,9 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="17">
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>24</v>
@@ -2129,9 +2181,9 @@
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="17">
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>24</v>
@@ -2141,9 +2193,9 @@
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="17">
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>24</v>
@@ -2153,19 +2205,19 @@
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="17">
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17">
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>15</v>
@@ -2175,7 +2227,7 @@
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="17">
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>76</v>
       </c>
@@ -2183,11 +2235,11 @@
         <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="17">
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
         <v>77</v>
       </c>
@@ -2201,9 +2253,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17">
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>65</v>
@@ -2215,9 +2267,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17">
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>65</v>
@@ -2226,10 +2278,10 @@
         <v>25</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>61</v>
       </c>
@@ -2240,33 +2292,33 @@
         <v>25</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17">
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17">
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>15</v>
@@ -2276,21 +2328,21 @@
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="17">
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="17">
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>7</v>
@@ -2299,9 +2351,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17">
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>24</v>
@@ -2313,9 +2365,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="17">
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>24</v>
@@ -2327,9 +2379,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="17">
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>24</v>
@@ -2338,23 +2390,23 @@
         <v>25</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>24</v>
@@ -2363,33 +2415,33 @@
         <v>25</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17">
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17">
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>15</v>
@@ -2399,21 +2451,21 @@
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="17">
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="17">
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
@@ -2422,9 +2474,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17">
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A100" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>24</v>
@@ -2436,9 +2488,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="17">
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>24</v>
@@ -2450,9 +2502,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="17">
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>24</v>
@@ -2461,12 +2513,12 @@
         <v>25</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>24</v>
@@ -2475,33 +2527,33 @@
         <v>25</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17">
+    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17">
+    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>15</v>
@@ -2511,21 +2563,21 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="17">
+    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="17">
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>7</v>
@@ -2534,9 +2586,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17">
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>24</v>
@@ -2548,9 +2600,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17">
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>24</v>
@@ -2562,9 +2614,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="17">
+    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>24</v>
@@ -2573,33 +2625,44 @@
         <v>25</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="C114" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17">
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17">
+    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>15</v>
@@ -2609,21 +2672,21 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="17">
+    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="17">
+    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>7</v>
@@ -2632,9 +2695,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17">
+    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A122" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>24</v>
@@ -2646,9 +2709,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="17">
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>24</v>
@@ -2660,9 +2723,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="17">
+    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>24</v>
@@ -2671,12 +2734,12 @@
         <v>25</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>24</v>
@@ -2685,29 +2748,152 @@
         <v>25</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="17">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17">
+    <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A132" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A133" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A134" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A135" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A136" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A137" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A138" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -10,6 +10,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="171">
   <si>
     <t>AI、UQ、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -117,10 +118,6 @@
   </si>
   <si>
     <t>TINYINT( 2 )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NN、UN</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -160,14 +157,6 @@
   </si>
   <si>
     <t>以 0、1、2 表示身分。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>擁有的總卡片數量。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登入次數。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -663,14 +652,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>pi_card_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi_login_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>vl_upload_date</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -859,7 +840,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,9 +1132,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1165,9 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1496,11 +1471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.69921875" customWidth="1"/>
     <col min="2" max="2" width="36.8984375" customWidth="1"/>
@@ -1508,7 +1483,7 @@
     <col min="4" max="4" width="77.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1518,8 +1493,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" ht="17">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1530,8 +1505,8 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:4" ht="17">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1542,43 +1517,43 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>103</v>
+    <row r="9" spans="1:4" ht="17">
+      <c r="A9" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1588,9 +1563,9 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1598,95 +1573,95 @@
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="D10" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>106</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17">
+      <c r="A13" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>101</v>
+      <c r="D13" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17">
+      <c r="A14" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>102</v>
+      <c r="D14" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+      <c r="D15" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="17">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -1697,9 +1672,9 @@
       <c r="D19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="17">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -1710,12 +1685,12 @@
       <c r="D20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>43</v>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -1724,46 +1699,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>44</v>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17">
+      <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="17">
+      <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17">
+      <c r="A25" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>11</v>
@@ -1772,24 +1747,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>54</v>
+    <row r="26" spans="1:6" ht="17">
+      <c r="A26" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="17">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="17">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>19</v>
@@ -1799,20 +1774,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="17">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:6" ht="17">
+      <c r="A31" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1823,9 +1798,9 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="17">
       <c r="A32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>7</v>
@@ -1835,9 +1810,9 @@
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>34</v>
+    <row r="33" spans="1:4" ht="17">
+      <c r="A33" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -1846,56 +1821,40 @@
         <v>25</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="17">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="17">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="17">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="17">
       <c r="A39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>15</v>
@@ -1905,21 +1864,21 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>82</v>
+    <row r="40" spans="1:4" ht="17">
+      <c r="A40" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>48</v>
+    <row r="41" spans="1:4" ht="17">
+      <c r="A41" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>7</v>
@@ -1931,9 +1890,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>139</v>
+    <row r="42" spans="1:4" ht="17">
+      <c r="A42" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>11</v>
@@ -1942,30 +1901,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="17">
       <c r="A43" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="17">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="17">
       <c r="A47" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>15</v>
@@ -1975,35 +1934,35 @@
       </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>88</v>
+    <row r="48" spans="1:4" ht="17">
+      <c r="A48" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>89</v>
+    <row r="49" spans="1:4" ht="17">
+      <c r="A49" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>137</v>
+    <row r="50" spans="1:4" ht="17">
+      <c r="A50" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>11</v>
@@ -2012,30 +1971,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="17">
       <c r="A51" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="17">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="17">
       <c r="A55" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>15</v>
@@ -2045,9 +2004,9 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>63</v>
+    <row r="56" spans="1:4" ht="17">
+      <c r="A56" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>7</v>
@@ -2057,40 +2016,40 @@
       </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>91</v>
+    <row r="57" spans="1:4" ht="17">
+      <c r="A57" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
+    <row r="58" spans="1:4" ht="17">
+      <c r="A58" s="12"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="17">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="17">
       <c r="A61" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>15</v>
@@ -2100,66 +2059,66 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>68</v>
+    <row r="62" spans="1:4" ht="17">
+      <c r="A62" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>92</v>
+    <row r="63" spans="1:4" ht="17">
+      <c r="A63" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
-        <v>71</v>
+    <row r="64" spans="1:4" ht="17">
+      <c r="A64" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="17">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>70</v>
+    <row r="69" spans="1:4" ht="17">
+      <c r="A69" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
@@ -2169,21 +2128,21 @@
       </c>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>93</v>
+    <row r="70" spans="1:4" ht="17">
+      <c r="A70" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>96</v>
+    <row r="71" spans="1:4" ht="17">
+      <c r="A71" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>24</v>
@@ -2193,9 +2152,9 @@
       </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
-        <v>97</v>
+    <row r="72" spans="1:4" ht="17">
+      <c r="A72" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>24</v>
@@ -2205,19 +2164,19 @@
       </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="17">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="17">
       <c r="A76" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>15</v>
@@ -2227,63 +2186,63 @@
       </c>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
-        <v>76</v>
+    <row r="77" spans="1:4" ht="17">
+      <c r="A77" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
+    <row r="78" spans="1:4" ht="17">
+      <c r="A78" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
-        <v>94</v>
+    </row>
+    <row r="79" spans="1:4" ht="17">
+      <c r="A79" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
-        <v>95</v>
+      <c r="D79" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17">
+      <c r="A80" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
-        <v>61</v>
+      <c r="D80" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17">
+      <c r="A81" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>24</v>
@@ -2291,34 +2250,34 @@
       <c r="C81" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="D81" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17">
       <c r="A82" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="17">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="17">
       <c r="A86" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>15</v>
@@ -2328,21 +2287,21 @@
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
-        <v>109</v>
+    <row r="87" spans="1:4" ht="17">
+      <c r="A87" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
-        <v>113</v>
+    <row r="88" spans="1:4" ht="17">
+      <c r="A88" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>7</v>
@@ -2351,9 +2310,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A89" s="21" t="s">
-        <v>110</v>
+    <row r="89" spans="1:4" ht="17">
+      <c r="A89" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>24</v>
@@ -2361,13 +2320,13 @@
       <c r="C89" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
-        <v>111</v>
+      <c r="D89" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17">
+      <c r="A90" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>24</v>
@@ -2375,13 +2334,13 @@
       <c r="C90" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
-        <v>112</v>
+      <c r="D90" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17">
+      <c r="A91" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>24</v>
@@ -2389,24 +2348,24 @@
       <c r="C91" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
-        <v>156</v>
+      <c r="D91" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17">
+      <c r="A92" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17">
+      <c r="A93" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>24</v>
@@ -2414,34 +2373,34 @@
       <c r="C93" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="D93" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17">
       <c r="A94" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="17">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="17">
       <c r="A97" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>15</v>
@@ -2451,21 +2410,21 @@
       </c>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
-        <v>114</v>
+    <row r="98" spans="1:4" ht="17">
+      <c r="A98" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
-        <v>115</v>
+    <row r="99" spans="1:4" ht="17">
+      <c r="A99" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
@@ -2474,9 +2433,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A100" s="21" t="s">
-        <v>143</v>
+    <row r="100" spans="1:4" ht="17">
+      <c r="A100" s="19" t="s">
+        <v>138</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>24</v>
@@ -2484,13 +2443,13 @@
       <c r="C100" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
-        <v>144</v>
+      <c r="D100" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17">
+      <c r="A101" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>24</v>
@@ -2498,13 +2457,13 @@
       <c r="C101" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>145</v>
+      <c r="D101" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17">
+      <c r="A102" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>24</v>
@@ -2512,13 +2471,13 @@
       <c r="C102" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
-        <v>116</v>
+      <c r="D102" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17">
+      <c r="A103" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>24</v>
@@ -2526,34 +2485,34 @@
       <c r="C103" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="D103" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17">
       <c r="A104" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="17">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="17">
       <c r="A108" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>15</v>
@@ -2563,21 +2522,21 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
-        <v>147</v>
+    <row r="109" spans="1:4" ht="17">
+      <c r="A109" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
-        <v>122</v>
+    <row r="110" spans="1:4" ht="17">
+      <c r="A110" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>7</v>
@@ -2586,9 +2545,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A111" s="21" t="s">
-        <v>123</v>
+    <row r="111" spans="1:4" ht="17">
+      <c r="A111" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>24</v>
@@ -2596,13 +2555,13 @@
       <c r="C111" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A112" s="13" t="s">
-        <v>124</v>
+      <c r="D111" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17">
+      <c r="A112" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>24</v>
@@ -2610,13 +2569,13 @@
       <c r="C112" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
-        <v>148</v>
+      <c r="D112" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17">
+      <c r="A113" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>24</v>
@@ -2624,13 +2583,13 @@
       <c r="C113" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="D113" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17">
       <c r="A114" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>5</v>
@@ -2639,30 +2598,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="17">
       <c r="A115" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="17">
       <c r="A118" s="1"/>
       <c r="B118" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="17">
       <c r="A119" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>15</v>
@@ -2672,21 +2631,21 @@
       </c>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A120" s="14" t="s">
-        <v>126</v>
+    <row r="120" spans="1:4" ht="17">
+      <c r="A120" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A121" s="16" t="s">
-        <v>127</v>
+    <row r="121" spans="1:4" ht="17">
+      <c r="A121" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>7</v>
@@ -2695,9 +2654,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A122" s="21" t="s">
-        <v>128</v>
+    <row r="122" spans="1:4" ht="17">
+      <c r="A122" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>24</v>
@@ -2705,13 +2664,13 @@
       <c r="C122" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A123" s="13" t="s">
-        <v>129</v>
+      <c r="D122" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17">
+      <c r="A123" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>24</v>
@@ -2719,13 +2678,13 @@
       <c r="C123" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
-        <v>130</v>
+      <c r="D123" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17">
+      <c r="A124" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>24</v>
@@ -2733,13 +2692,13 @@
       <c r="C124" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>161</v>
+      <c r="D124" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17">
+      <c r="A125" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>24</v>
@@ -2747,45 +2706,45 @@
       <c r="C125" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D125" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="D125" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17">
       <c r="A126" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
-        <v>157</v>
+    <row r="127" spans="1:4" ht="17">
+      <c r="A127" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="17">
       <c r="A131" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>5</v>
@@ -2795,21 +2754,21 @@
       </c>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
-        <v>166</v>
+    <row r="132" spans="1:4" ht="17">
+      <c r="A132" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A133" s="16" t="s">
-        <v>167</v>
+    <row r="133" spans="1:4" ht="17">
+      <c r="A133" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>7</v>
@@ -2818,9 +2777,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A134" s="21" t="s">
-        <v>168</v>
+    <row r="134" spans="1:4" ht="17">
+      <c r="A134" s="19" t="s">
+        <v>163</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>24</v>
@@ -2828,13 +2787,13 @@
       <c r="C134" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A135" s="13" t="s">
-        <v>169</v>
+      <c r="D134" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17">
+      <c r="A135" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>24</v>
@@ -2842,13 +2801,13 @@
       <c r="C135" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D135" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A136" s="13" t="s">
-        <v>170</v>
+      <c r="D135" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="17">
+      <c r="A136" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>24</v>
@@ -2856,24 +2815,24 @@
       <c r="C136" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D136" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A137" s="13" t="s">
-        <v>171</v>
+      <c r="D136" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17">
+      <c r="A137" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="17" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
-        <v>172</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="17">
+      <c r="A138" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>24</v>
@@ -2881,16 +2840,16 @@
       <c r="C138" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D138" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.3">
+      <c r="D138" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17">
       <c r="A139" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>2</v>
